--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bmpr1b</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H2">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +561,22 @@
         <v>10.530571</v>
       </c>
       <c r="O2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q2">
-        <v>15.81200220546989</v>
+        <v>28.54894195158023</v>
       </c>
       <c r="R2">
-        <v>142.308019849229</v>
+        <v>256.940477564222</v>
       </c>
       <c r="S2">
-        <v>0.2433905575437934</v>
+        <v>0.3068495394842909</v>
       </c>
       <c r="T2">
-        <v>0.2433905575437934</v>
+        <v>0.306849539484291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H3">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.629899</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N3">
-        <v>1.889697</v>
+        <v>2.660905</v>
       </c>
       <c r="O3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q3">
-        <v>2.837442825433667</v>
+        <v>7.213855961245555</v>
       </c>
       <c r="R3">
-        <v>25.536985428903</v>
+        <v>64.92470365121</v>
       </c>
       <c r="S3">
-        <v>0.0436761127595867</v>
+        <v>0.07753591651026778</v>
       </c>
       <c r="T3">
-        <v>0.04367611275958671</v>
+        <v>0.0775359165102678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.480073</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H4">
-        <v>22.440219</v>
+        <v>24.399482</v>
       </c>
       <c r="I4">
-        <v>0.476686011772755</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J4">
-        <v>0.476686011772755</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.510190333333334</v>
+        <v>0.030706</v>
       </c>
       <c r="N4">
-        <v>10.530571</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824425</v>
       </c>
       <c r="P4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824427</v>
       </c>
       <c r="Q4">
-        <v>26.25647993722767</v>
+        <v>0.2497368314306667</v>
       </c>
       <c r="R4">
-        <v>236.308319435049</v>
+        <v>2.247631482876</v>
       </c>
       <c r="S4">
-        <v>0.4041600303374961</v>
+        <v>0.002684219676047378</v>
       </c>
       <c r="T4">
-        <v>0.4041600303374961</v>
+        <v>0.002684219676047379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +729,10 @@
         <v>22.440219</v>
       </c>
       <c r="I5">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J5">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.629899</v>
+        <v>3.510190333333334</v>
       </c>
       <c r="N5">
-        <v>1.889697</v>
+        <v>10.530571</v>
       </c>
       <c r="O5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q5">
-        <v>4.711690502627</v>
+        <v>26.25647993722767</v>
       </c>
       <c r="R5">
-        <v>42.405214523643</v>
+        <v>236.308319435049</v>
       </c>
       <c r="S5">
-        <v>0.07252598143525886</v>
+        <v>0.2822097151929961</v>
       </c>
       <c r="T5">
-        <v>0.07252598143525887</v>
+        <v>0.2822097151929961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.707151333333333</v>
+        <v>7.480073</v>
       </c>
       <c r="H6">
-        <v>11.121454</v>
+        <v>22.440219</v>
       </c>
       <c r="I6">
-        <v>0.2362473179238649</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J6">
-        <v>0.2362473179238649</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.510190333333334</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N6">
-        <v>10.530571</v>
+        <v>2.660905</v>
       </c>
       <c r="O6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q6">
-        <v>13.01280677447045</v>
+        <v>6.634587882021666</v>
       </c>
       <c r="R6">
-        <v>117.115260970234</v>
+        <v>59.71129093819499</v>
       </c>
       <c r="S6">
-        <v>0.2003031782371227</v>
+        <v>0.07130983136675298</v>
       </c>
       <c r="T6">
-        <v>0.2003031782371227</v>
+        <v>0.07130983136675298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.480073</v>
+      </c>
+      <c r="H7">
+        <v>22.440219</v>
+      </c>
+      <c r="I7">
+        <v>0.3559882250904906</v>
+      </c>
+      <c r="J7">
+        <v>0.3559882250904906</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.030706</v>
+      </c>
+      <c r="N7">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P7">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q7">
+        <v>0.229683121538</v>
+      </c>
+      <c r="R7">
+        <v>2.067148093842</v>
+      </c>
+      <c r="S7">
+        <v>0.00246867853074144</v>
+      </c>
+      <c r="T7">
+        <v>0.002468678530741441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.707151333333333</v>
-      </c>
-      <c r="H7">
-        <v>11.121454</v>
-      </c>
-      <c r="I7">
-        <v>0.2362473179238649</v>
-      </c>
-      <c r="J7">
-        <v>0.2362473179238649</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.629899</v>
-      </c>
-      <c r="N7">
-        <v>1.889697</v>
-      </c>
-      <c r="O7">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="P7">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="Q7">
-        <v>2.335130917715333</v>
-      </c>
-      <c r="R7">
-        <v>21.016178259438</v>
-      </c>
-      <c r="S7">
-        <v>0.03594413968674216</v>
-      </c>
-      <c r="T7">
-        <v>0.03594413968674216</v>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.398902333333333</v>
+      </c>
+      <c r="H8">
+        <v>16.196707</v>
+      </c>
+      <c r="I8">
+        <v>0.2569420992389033</v>
+      </c>
+      <c r="J8">
+        <v>0.2569420992389034</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.510190333333334</v>
+      </c>
+      <c r="N8">
+        <v>10.530571</v>
+      </c>
+      <c r="O8">
+        <v>0.7927501397588634</v>
+      </c>
+      <c r="P8">
+        <v>0.7927501397588635</v>
+      </c>
+      <c r="Q8">
+        <v>18.95117478107744</v>
+      </c>
+      <c r="R8">
+        <v>170.560573029697</v>
+      </c>
+      <c r="S8">
+        <v>0.2036908850815764</v>
+      </c>
+      <c r="T8">
+        <v>0.2036908850815764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.398902333333333</v>
+      </c>
+      <c r="H9">
+        <v>16.196707</v>
+      </c>
+      <c r="I9">
+        <v>0.2569420992389033</v>
+      </c>
+      <c r="J9">
+        <v>0.2569420992389034</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8869683333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.660905</v>
+      </c>
+      <c r="O9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="P9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="Q9">
+        <v>4.788655404426111</v>
+      </c>
+      <c r="R9">
+        <v>43.09789863983499</v>
+      </c>
+      <c r="S9">
+        <v>0.05146939273929133</v>
+      </c>
+      <c r="T9">
+        <v>0.05146939273929135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.398902333333333</v>
+      </c>
+      <c r="H10">
+        <v>16.196707</v>
+      </c>
+      <c r="I10">
+        <v>0.2569420992389033</v>
+      </c>
+      <c r="J10">
+        <v>0.2569420992389034</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.030706</v>
+      </c>
+      <c r="N10">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P10">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q10">
+        <v>0.1657786950473333</v>
+      </c>
+      <c r="R10">
+        <v>1.492008255426</v>
+      </c>
+      <c r="S10">
+        <v>0.001781821418035608</v>
+      </c>
+      <c r="T10">
+        <v>0.001781821418035609</v>
       </c>
     </row>
   </sheetData>
